--- a/MedicalLink/Templates/BC_106_TrichThuongKinhHienVi.xlsx
+++ b/MedicalLink/Templates/BC_106_TrichThuongKinhHienVi.xlsx
@@ -204,7 +204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,41 +308,41 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -350,18 +350,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -680,7 +669,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,78 +684,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="21"/>
+      <c r="D1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -777,10 +766,10 @@
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -795,16 +784,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="17">
         <f>SUM(C8:C8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" ref="C9:D9" si="0">SUM(D8:D8)</f>
+        <f t="shared" ref="D9" si="0">SUM(D8:D8)</f>
         <v>0</v>
       </c>
       <c r="E9" s="17">
@@ -824,10 +813,10 @@
         <v>Bằng chữ: &amp;=[DATA].TONGTIEN_STRING</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
@@ -876,17 +865,17 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="A9 C9:F9 A8:F8">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MedicalLink/Templates/BC_106_TrichThuongKinhHienVi.xlsx
+++ b/MedicalLink/Templates/BC_106_TrichThuongKinhHienVi.xlsx
@@ -128,7 +128,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +181,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -338,10 +332,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,7 +663,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A7" sqref="A7:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
